--- a/Board/bom/cbm_ultipet_v1.2a-mouser.xlsx
+++ b/Board/bom/cbm_ultipet_v1.2a-mouser.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="554">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -93,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC24</t>
   </si>
   <si>
@@ -126,12 +123,15 @@
     <t xml:space="preserve">IS61C5128AS-25QLI</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin header</t>
-  </si>
-  <si>
     <t xml:space="preserve">pin strip straight 20 pin</t>
   </si>
   <si>
+    <t xml:space="preserve">538-22-28-4204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-28-4204</t>
+  </si>
+  <si>
     <t xml:space="preserve">649-1012937892001BLF </t>
   </si>
   <si>
@@ -195,18 +195,6 @@
     <t xml:space="preserve">PETUSERPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">SJ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ2W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder-Jumper, no part</t>
-  </si>
-  <si>
     <t xml:space="preserve">C114</t>
   </si>
   <si>
@@ -288,6 +276,9 @@
     <t xml:space="preserve">1u</t>
   </si>
   <si>
+    <t xml:space="preserve">710-860010772005</t>
+  </si>
+  <si>
     <t xml:space="preserve">710-860020672005 </t>
   </si>
   <si>
@@ -363,7 +354,7 @@
     <t xml:space="preserve">E2-5</t>
   </si>
   <si>
-    <t xml:space="preserve">1u  (note: alternatively mlcc?)</t>
+    <t xml:space="preserve">1u  (note: alternatively mlcc)</t>
   </si>
   <si>
     <t xml:space="preserve">710-860020672005</t>
@@ -639,6 +630,12 @@
     <t xml:space="preserve">1k</t>
   </si>
   <si>
+    <t xml:space="preserve">603-MFR-12FRF521K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFR-12FRF52-1K</t>
+  </si>
+  <si>
     <t xml:space="preserve">603-MFR-12FTF52-1K</t>
   </si>
   <si>
@@ -1293,18 +1290,18 @@
     <t xml:space="preserve">Socket 44 pin PLCC</t>
   </si>
   <si>
+    <t xml:space="preserve">517-8444-11B1-RK-TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8444-11B1-RK-TP</t>
+  </si>
+  <si>
     <t xml:space="preserve">737-PLCC-44-AT</t>
   </si>
   <si>
     <t xml:space="preserve">PLCC-44-AT</t>
   </si>
   <si>
-    <t xml:space="preserve">517-8444-11B1-RK-TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8444-11B1-RK-TP</t>
-  </si>
-  <si>
     <t xml:space="preserve">X4</t>
   </si>
   <si>
@@ -1711,6 +1708,15 @@
   </si>
   <si>
     <t xml:space="preserve">CMS-321437-24SP-X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key switches N-Keyboard (for SJGray PCB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540-MX1A-C1NW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX1A-C1NW </t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1727,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1759,6 +1765,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1816,7 +1829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1829,20 +1842,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1867,6 +1880,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2056,10 +2073,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+      <selection pane="bottomRight" activeCell="I153" activeCellId="0" sqref="B153:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2073,8 +2094,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.83"/>
   </cols>
   <sheetData>
@@ -2117,235 +2138,245 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>2</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>43</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
@@ -2354,3026 +2385,3003 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="A18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>860010772005</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>19</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>860010372006</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="D29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="8" t="n">
-        <v>860010372006</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="F31" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>78</v>
+      <c r="H31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>860010372006</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>860010372006</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>744115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>744115</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="H41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="F46" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>163</v>
+        <v>100</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>166</v>
+        <v>180</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>170</v>
+        <v>330</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>173</v>
+        <v>390</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>176</v>
+        <v>470</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>180</v>
+        <v>470</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J55" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="I55" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>188</v>
+      <c r="H57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>249</v>
+        <v>259</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>258</v>
+        <v>211</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>262</v>
+        <v>222</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>268</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>274</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>29</v>
-      </c>
       <c r="B83" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>277</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="A84" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="D95" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>335</v>
+        <v>347</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>350</v>
+        <v>357</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>360</v>
+        <v>369</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D109" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>384</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="D110" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="D111" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="J112" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J113" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="J114" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="J115" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>407</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="D117" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="J117" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="D118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>415</v>
+      <c r="F118" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="A119" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I120" s="4" t="n">
+        <v>9282486804791</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>424</v>
+        <v>434</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I123" s="6" t="n">
-        <v>9282486804791</v>
+        <v>443</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>441</v>
+        <v>455</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>9032646824</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="K127" s="6" t="s">
-        <v>453</v>
+        <v>461</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="D128" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I128" s="1" t="n">
-        <v>9032646824</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>459</v>
+        <v>464</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="A129" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>23</v>
-      </c>
       <c r="B130" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="D131" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>474</v>
+        <v>486</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>484</v>
+        <v>491</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>489</v>
+        <v>496</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>503</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+        <v>508</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>508</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D142" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="I143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="D145" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>526</v>
-      </c>
+      <c r="F145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="I146" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="2" t="n">
+      <c r="F146" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I149" s="14" t="n">
+        <v>830207670409</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D150" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F147" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>544</v>
+      <c r="H150" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="B151" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>3</v>
+        <v>551</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I153" s="13" t="n">
-        <v>830207670409</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/Board/bom/cbm_ultipet_v1.2a-mouser.xlsx
+++ b/Board/bom/cbm_ultipet_v1.2a-mouser.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="550">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1123,18 +1123,6 @@
   </si>
   <si>
     <t xml:space="preserve">74HCT00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TQFP-48_7x7mm_P0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL16C752C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 595-TL16C752DPFBR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL16C752DPFBR </t>
   </si>
   <si>
     <t xml:space="preserve">IC49</t>
@@ -2073,14 +2061,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
-      <selection pane="bottomRight" activeCell="I153" activeCellId="0" sqref="B153:I153"/>
+      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="bottomRight" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4332,13 +4320,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>1</v>
@@ -4355,30 +4343,30 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>364</v>
@@ -4387,27 +4375,27 @@
         <v>278</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>1</v>
@@ -4415,22 +4403,22 @@
       <c r="F103" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>1</v>
@@ -4441,19 +4429,19 @@
       <c r="H104" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>1</v>
@@ -4470,13 +4458,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>1</v>
@@ -4490,180 +4478,180 @@
       <c r="I106" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="J106" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="H108" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="I108" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="I109" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="J109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="J110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="I111" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="J111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="I112" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="J112" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="J112" s="4"/>
+      <c r="K112" s="7" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J113" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>406</v>
-      </c>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F114" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="I114" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="J114" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="J114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H115" s="1" t="s">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J115" s="9" t="s">
+      <c r="D116" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="I116" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>415</v>
@@ -4672,67 +4660,67 @@
         <v>416</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I119" s="4" t="s">
         <v>428</v>
+      </c>
+      <c r="I119" s="4" t="n">
+        <v>9282486804791</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>429</v>
@@ -4744,18 +4732,18 @@
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="I120" s="4" t="n">
-        <v>9282486804791</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>433</v>
@@ -4778,7 +4766,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>437</v>
@@ -4790,489 +4778,489 @@
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>9032646824</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I125" s="1" t="n">
-        <v>9032646824</v>
-      </c>
-      <c r="J125" s="4" t="s">
+      <c r="D126" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="H126" s="4" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
+      <c r="I126" s="4" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="H127" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H132" s="4" t="s">
+      <c r="F133" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I132" s="4" t="s">
+      <c r="H133" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I133" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D134" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="139" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="F142" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D142" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="J142" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="K142" s="3" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="D143" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>532</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D144" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>535</v>
+        <v>29</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>536</v>
@@ -5282,106 +5270,83 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="I145" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H145" s="3" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="D148" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
+      <c r="I148" s="14" t="n">
+        <v>830207670409</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I149" s="14" t="n">
-        <v>830207670409</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H150" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H151" s="1" t="s">
+      <c r="I152" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>
